--- a/Пример чек-листов.xlsx
+++ b/Пример чек-листов.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zimancer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitrep\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD690D61-6CCD-49F0-BD2D-6914953A9114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6C6E9B-9BCD-430E-97FA-0B5F1000EF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,13 +99,13 @@
     <t>Посмотреть корректность работы сайта на разных размерах экрана;</t>
   </si>
   <si>
-    <t>Проверить верстку в разных браузера</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Проверить наличие тегов H1 на страницах</t>
   </si>
   <si>
     <t>Проверить наличие значка фавикона</t>
+  </si>
+  <si>
+    <t>Проверить верстку в разных браузерах</t>
   </si>
 </sst>
 </file>
@@ -227,12 +227,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -247,6 +241,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,49 +531,49 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="8"/>
-    <col min="4" max="4" width="18.6640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="8"/>
-    <col min="6" max="6" width="20.21875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="28.88671875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="8"/>
-    <col min="9" max="9" width="17.33203125" style="8" customWidth="1"/>
-    <col min="10" max="11" width="8.88671875" style="8"/>
-    <col min="12" max="12" width="18.109375" style="8" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="8"/>
-    <col min="14" max="14" width="16.109375" style="8" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="15.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="18.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="6"/>
+    <col min="6" max="6" width="20.21875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="28.88671875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="17.33203125" style="6" customWidth="1"/>
+    <col min="10" max="11" width="8.88671875" style="6"/>
+    <col min="12" max="12" width="18.109375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="6"/>
+    <col min="14" max="14" width="16.109375" style="6" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="4" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="4" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="10"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:15" ht="54.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -588,7 +588,7 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +601,7 @@
       <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="10"/>
+      <c r="J2" s="8"/>
       <c r="K2" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,7 +614,7 @@
       <c r="N2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="10"/>
+      <c r="O2" s="8"/>
     </row>
     <row r="3" spans="1:15" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
@@ -623,27 +623,27 @@
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="9">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="7">
         <v>1</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11">
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9">
         <v>1</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="10"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="8"/>
     </row>
     <row r="4" spans="1:15" ht="108.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
@@ -652,27 +652,27 @@
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="7">
         <v>2</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9">
         <v>2</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="10"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
@@ -681,27 +681,27 @@
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7">
         <v>3</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="9">
         <v>3</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="10"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="8"/>
     </row>
     <row r="6" spans="1:15" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
@@ -710,27 +710,27 @@
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7">
         <v>4</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="9">
         <v>4</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="10"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:15" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
@@ -739,27 +739,27 @@
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="9">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="7">
         <v>5</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11">
+      <c r="G7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="9">
         <v>5</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="10"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
@@ -768,23 +768,23 @@
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="9">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="7">
         <v>6</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="G8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
     </row>
     <row r="9" spans="1:15" ht="54.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
@@ -793,40 +793,40 @@
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="9">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="7">
         <v>7</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
+      <c r="G9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
